--- a/Linux/DeviceDrivers/Document(important)/10.Linux设备模型.xlsx
+++ b/Linux/DeviceDrivers/Document(important)/10.Linux设备模型.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B232CC8-3736-46D0-995E-E1A0EDEA0CB3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9C0DFF4-E63E-4131-A5F6-8DC4ED49BA0D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="800" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="800" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="经典图表" sheetId="19" r:id="rId1"/>
@@ -5716,7 +5716,2414 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>include/linux/device.h
+    <t>用户空间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Linux</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>udev</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>或</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>Android</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>ueventd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>会监听</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">uevent, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>然后自动创建设备节点</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>platform_device</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>include/linux/platform_device.h
+struct platform_device {
+    const char      *name;
+    int             id;
+    bool            id_auto;
+    struct device   dev;
+    u32             num_resources;
+    struct resource *resource;
+    const struct platform_device_id   *id_entry;
+    char *driver_override;         /* Driver name to force a match */
+    struct mfd_cell *mfd_cell;     /* MFD cell pointer */
+    struct pdev_archdata archdata; /* arch specific additions */
+};</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>platform_driver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">drivers/base/platform.c
+EXPORT_SYMBOL_GPL:
+struct platform_device *platform_device_alloc(const char *name, int id);
+int platform_device_add(struct platform_device *pdev);
+void platform_device_del(struct platform_device *pdev);
+int platform_device_register(struct platform_device *pdev);
+void platform_device_unregister(struct platform_device *pdev);
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>drivers/base/platform.c
+EXPORT_SYMBOL_GPL:
+int __platform_driver_register(struct platform_driver *drv, struct module *owner);
+void platform_driver_unregister(struct platform_driver *drv);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>include/linux/platform_device.h
+struct platform_driver {
+    int (*probe)(struct platform_device *);
+    int (*remove)(struct platform_device *);
+    void (*shutdown)(struct platform_device *);
+    int (*suspend)(struct platform_device *, pm_message_t state);
+    int (*resume)(struct platform_device *);
+    struct device_driver driver;
+    const struct platform_device_id *id_table;
+    bool prevent_deferred_probe;
+};
+#define platform_driver_register(drv) __platform_driver_register(drv, THIS_MODULE)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>platform_driver_register(&amp;i2c_imx_driver)</t>
+  </si>
+  <si>
+    <t>static struct platform_driver i2c_imx_driver = {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    .remove = i2c_imx_remove,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .of_match_table = i2c_imx_dt_ids,</t>
+  </si>
+  <si>
+    <t>resource</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>include/linux/ioport.h
+struct resource {
+    resource_size_t start;
+    resource_size_t end;
+    const char *name;
+    unsigned long flags;
+    struct resource *parent, *sibling, *child;
+};</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>根据设备树创建</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>platform_device</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>过程</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>arch_initcall(customize_machine);</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>arch/arm/kernel/setup.c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>init/main.c, customize_machine()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>arch_initcall</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>customize_machine()</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>imx6q_init_machine()</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>arch/arm/mach-imx/board-imx6dl_xxxx.c, machine_desc-&gt;init_machine()</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>of_platform_populate(NULL, of_default_bus_match_table, NULL, parent)</t>
+  </si>
+  <si>
+    <t>drivers/of/platform.c</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>of_platform_bus_create(child, matches, lookup, parent, true)</t>
+  </si>
+  <si>
+    <t>struct platform_device *dev = of_platform_device_create_pdata(bus, bus_id, platform_data, parent)</t>
+  </si>
+  <si>
+    <t>subsys_initcall(i2c_adap_imx_init)</t>
+  </si>
+  <si>
+    <t>drivers/i2c/busses/i2c-imx.c</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>i2c_adap_imx_init()</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>i2c_imx_probe()</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>i2c_add_numbered_adapter(&amp;i2c_imx-&gt;adapter)</t>
+  </si>
+  <si>
+    <t>i2c_add_adapter(adap)</t>
+  </si>
+  <si>
+    <t>drivers/i2c/i2c-core.c</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>i2c_register_adapter(adapter)</t>
+  </si>
+  <si>
+    <t>of_i2c_register_devices(adap)</t>
+  </si>
+  <si>
+    <t>of_i2c_register_device(adap, node)</t>
+  </si>
+  <si>
+    <t>struct i2c_client *result = i2c_new_device(adap, &amp;info)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    .probe = i2c_imx_probe,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    .driver    = {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .name = "imx-i2c",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .owner = THIS_MODULE,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .pm = IMX_I2C_PM,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    .id_table    = imx_i2c_devtype,</t>
+  </si>
+  <si>
+    <t>static const struct of_device_id i2c_imx_dt_ids[] = {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    { .compatible = "fsl,imx1-i2c", .data = &amp;imx1_i2c_hwdata, },</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    { .compatible = "fsl,imx21-i2c", .data = &amp;imx21_i2c_hwdata, },</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    { .compatible = "fsl,vf610-i2c", .data = &amp;vf610_i2c_hwdata, },</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>初始化</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>platform_bus</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>根据设备树创建各子系统设备过程</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>以</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>i2c_client</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为例</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">include/linux/kobject.h
+struct kobj_attribute {
+    struct attribute attr;
+    ssize_t (*show)(struct kobject *kobj, struct kobj_attribute *attr,
+            char *buf);
+    ssize_t (*store)(struct kobject *kobj, struct kobj_attribute *attr,
+            const char *buf, size_t count);
+};
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>注</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>:
+show</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>函数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> store</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>函数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>需要自己实现</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>include/linux/sysfs.h
+static inline struct kernfs_node *sysfs_get(struct kernfs_node *kn);
+static inline void sysfs_put(struct kernfs_node *kn);
+static inline int __must_check sysfs_create_file(struct kobject *kobj,
+        const struct attribute *attr);
+static inline void sysfs_remove_file(struct kobject *kobj,
+        const struct attribute *attr);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>include/linux/sysfs.h
+struct attribute {
+    const char            *name;
+    umode_t               mode;
+#ifdef CONFIG_DEBUG_LOCK_ALLOC
+    bool                  ignore_lockdep:1;
+    struct lock_class_key *key;
+    struct lock_class_key skey;
+#endif
+};
+#define __ATTR(_name, _mode, _show, _store) {      \
+    .attr = {                                      \
+        .name = __stringify(_name),                \
+        .mode = VERIFY_OCTAL_PERMISSIONS(_mode),   \
+    },                                             \
+    .show    = _show,                              \
+    .store    = _store,                            \
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>include/linux/sysfs.h
+static inline int __must_check sysfs_create_file(struct kobject *kobj, const struct attribute *attr)
+{
+    return sysfs_create_file_ns(kobj, attr, NULL);
+}
+static inline void sysfs_remove_file(struct kobject *kobj, const struct attribute *attr)
+{
+    sysfs_remove_file_ns(kobj, attr, NULL);
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>driver_private</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>drivers/base/base.h
+struct driver_private {
+    struct kobject kobj;
+    struct klist klist_devices;
+    struct klist_node knode_bus;
+    struct module_kobject *mkobj;
+    struct device_driver *driver;
+};</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">drivers/base/bus.c
+EXPORT_SYMBOL_GPL:
+int bus_register(struct bus_type *bus);
+void bus_unregister(struct bus_type *bus);
+/* register a subsystem at /sys/devices/system/ */
+int subsys_system_register(struct bus_type *subsys, const struct attribute_group **groups);
+/* register a subsystem at /sys/devices/virtual/ */
+int subsys_virtual_register(struct bus_type *subsys, const struct attribute_group **groups);
+int bus_create_file(struct bus_type *bus, struct bus_attribute *attr);
+void bus_remove_file(struct bus_type *bus, struct bus_attribute *attr);
+// </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>内核通知链相关</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+int bus_register_notifier(struct bus_type *bus, struct notifier_block *nb);
+int bus_unregister_notifier(struct bus_type *bus, struct notifier_block *nb);
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>内部接口</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>:
+static int subsys_register(struct bus_type *subsys, const struct attribute_group **groups,
+        struct kobject *parent_of_root);</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kobject, ktype, kset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>名称概念</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>.h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>相关</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>.c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>相关</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">include/linux/kobject.h
+struct kobj_type {
+    void (*release)(struct kobject *kobj);   // </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>提供释放</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>kobject</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>上层结构的方法</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+    const struct sysfs_ops *sysfs_ops;   // </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>本</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>ktype</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对应的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>kobject</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>上层结构的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>sysfs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件系统接口</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+    struct attribute **default_attrs;    // </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>本</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>ktype</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对应的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>kobject</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>上层结构的默认属性列表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+    const struct kobj_ns_type_operations *(*child_ns_type)(struct kobject *kobj);
+    const void *(*namespace)(struct kobject *kobj);
+};
+static inline struct kobj_type *get_ktype(struct kobject *kobj);
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>注</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">:
+child_ns_type/namespace </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>相关的先不管</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>可能跟</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> net </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">有关
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">enum kobj_ns_type </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>目前好像也只有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> NONE </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> NET</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">include/linux/kobject.h
+struct kobject {
+    const char          *name;
+    struct list_head    entry;    // </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>用于将本</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>kobject</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>加入到父</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>object</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>所在的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>kset</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>list</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+    struct kobject      *parent;  // </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>指向父</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">object
+    struct kset         *kset;    // </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>指向父</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>object</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>所在的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">kset
+    struct kobj_type    *ktype;   // </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>属性操作集合</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>及</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> release</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>方法</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+    struct kernfs_node  *sd;      // </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>本</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>Kobject</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>sysfs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中的体现</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+    struct kref         kref;
+#ifdef CONFIG_DEBUG_KOBJECT_RELEASE
+    struct delayed_work release;
+#endif
+    unsigned int        state_initialized:1;
+    unsigned int        state_in_sysfs:1;
+    unsigned int        state_add_uevent_sent:1;
+    unsigned int        state_remove_uevent_sent:1;
+    unsigned int        uevent_suppress:1;
+};
+static inline const char *kobject_name(const struct kobject *kobj);
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">include/linux/kernfs.h
+struct kernfs_node {
+    atomic_t           count;
+    atomic_t           active;
+#ifdef CONFIG_DEBUG_LOCK_ALLOC
+    struct lockdep_map dep_map;
+#endif
+    /*
+     * Use kernfs_get_parent() and kernfs_name/path() instead of
+     * accessing the following two fields directly.  If the node is
+     * never moved to a different parent, it is safe to access the
+     * parent directly.
+     */
+    struct kernfs_node *parent;
+    const char         *name;
+    struct rb_node     rb;
+    const void         *ns;    /* namespace tag */
+    unsigned int       hash;   /* ns + name hash */
+    union {
+        struct kernfs_elem_dir     dir;
+        struct kernfs_elem_symlink symlink;
+        struct kernfs_elem_attr    attr;
+    };
+    void                 *priv; // </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>存放</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">kobject(dir) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>或</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> attribute(attr)
+    unsigned short       flags;
+    umode_t              mode;
+    unsigned int         ino;
+    struct kernfs_iattrs *iattr;
+};</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">include/linux/kobject.h
+struct kset {
+    struct list_head list;   // </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>用于管理子</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>kobject</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">list
+    spinlock_t list_lock;
+    struct kobject kobj;   // kset </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>也是特殊的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> kobject
+    const struct kset_uevent_ops *uevent_ops;
+};
+extern void kset_init(struct kset *kset);
+static inline struct kset *to_kset(struct kobject *kobj);
+static inline struct kset *kset_get(struct kset *k);
+static inline void kset_put(struct kset *k);
+kset</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>有以下几个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">:
+/sys/firmware/devicetree/ - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>无</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">kset_uevent_ops
+/sys/devices/ - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">kset_uevent_ops
+    devices_kset = kset_create_and_add("devices", &amp;device_uevent_ops, NULL);
+/sys/devices/system/ - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>无</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">kset_uevent_ops
+    system_kset = kset_create_and_add("system", NULL, &amp;devices_kset-&gt;kobj);
+/sys/bus/ - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">kset_uevent_ops
+    bus_kset = kset_create_and_add("bus", &amp;bus_uevent_ops, NULL);
+/sys/bus/&lt;bus_type&gt;/ - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>应该也没有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">kset_uevent_ops
+    retval = kset_register(&amp;priv-&gt;subsys);
+/sys/bus/&lt;bus_type&gt;/devices/ - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>无</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">kset_uevent_ops
+    priv-&gt;devices_kset = kset_create_and_add("devices", NULL, &amp;priv-&gt;subsys.kobj);
+/sys/bus/&lt;bus_type&gt;/drivers/ - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>无</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">kset_uevent_ops
+    priv-&gt;drivers_kset = kset_create_and_add("drivers", NULL, &amp;priv-&gt;subsys.kobj);
+/sys/class/ - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>无</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">kset_uevent_ops
+    class_kset = kset_create_and_add("class", NULL, NULL);
+/sys/class/&lt;class&gt;/ - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>应该也没有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>kset_uevent_ops
+    error = kset_register(&amp;cp-&gt;subsys);</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>一</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">// ktype </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>自动赋值为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> dynamic_kobj_ktype</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kobj = kobject_create_and_add("test", NULL);</t>
+  </si>
+  <si>
+    <t>kobject_del(kobj);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kobject_put(kobj);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>struct kobject *kobj;</t>
+  </si>
+  <si>
+    <t>kobj = kzalloc(sizeof(*kobj), GFP_KERNEL);</t>
+  </si>
+  <si>
+    <t>static struct kobj_type test_ktype = {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    .sysfs_ops  = &amp;test_sysfs_ops,</t>
+  </si>
+  <si>
+    <t>const struct sysfs_ops test_sysfs_ops = {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    .show   = test_attr_show,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    .store  = test_attr_store,</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ...</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>static ssize_t test_attr_show(struct kobject *kobj, struct attribute *attr, char *buf)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>static ssize_t test_attr_store(struct kobject *kobj, struct attribute *attr, const char *buf, size_t count)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>static void test_kobj_release(struct kobject *kobj)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    kfree(kobj);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    .release    = test_kobj_release,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kobject_add(kobj, NULL, "test");</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>定义</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> attribute</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>static struct attribute val_attribute = {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    .name = "val",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    .mode = 0664,</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>定义</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> sysfs_ops</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>定义</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> ktype</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>创建与添加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> kobject</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">5. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>创建</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> file</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sysfs_create_file(kobj, &amp;val_attribute);</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>删除</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> kobject</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>################################ kobject ################################</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>################################ kset ################################</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>struct kset *test_kset;</t>
+  </si>
+  <si>
+    <t>test_kset = kzalloc(sizeof(struct kset), GFP_KERNEL);</t>
+  </si>
+  <si>
+    <t>kobject_set_name(test_kset-&gt;kobj, "test");</t>
+  </si>
+  <si>
+    <t>kset_register(test_kset);</t>
+  </si>
+  <si>
+    <t>struct kobject *kobj;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kobj = kobject_create();</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>struct kset *test_kset;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_kset = kset_create_and_add("test", NULL, NULL);</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">// ktype </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>自动赋值为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> kset_ktype</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kobject_init_and_add(kobj, &amp;test_ktype, NULL, "test");</t>
+  </si>
+  <si>
+    <t>test_kset-&gt;kobj.ktype = &amp;test_ktype;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>注销</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> kset</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>注册</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> kset</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kset_unregister(test_kset);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>################################ bus / device / driver ################################</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>struct test_device {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    char *drv_name;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>定义</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> device_driver </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>类型</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>定义</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> device </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>类型</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    struct device_driver drv;</t>
+  </si>
+  <si>
+    <t>struct test_driver {</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    struct device dev;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    struct test_device *devp;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    devp = container_of(dev_in, struct test_device, dev);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        return 1;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    return 0;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    if (!strcmp(drv_in-&gt;name, devp-&gt;drv_name)) {</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>struct bus_type test_bus = {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    .name = "test_bus",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    .match = test_bus_match,</t>
+  </si>
+  <si>
+    <t>int test_bus_match(struct device *dev_in, struct device_driver *drv_in)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>定义</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> device </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数据</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    .drv_name = "test_drv",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    .dev = {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .init_name = "test_dev",</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>定义</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> bus_type </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数据</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void test_dev_release(struct device *dev)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .bus = &amp;test_bus,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .release = test_dev_release</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">5. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>定义</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> driver </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数据</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>static int test_drv_probe(struct test_device *dev)</t>
+  </si>
+  <si>
+    <t>static int test_drv_remove(struct test_device *dev)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    .driver = {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .name = "test_drv",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    .probe = test_drv_probe,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    .remove = test_drv_remove,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    int (*probe)(struct test_device *);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    int (*remove)(struct test_device *);</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>注册</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> bus / device / driver</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bus_register(&amp;test_bus);</t>
+  </si>
+  <si>
+    <t>driver_register(&amp;test_drv.drv);</t>
+  </si>
+  <si>
+    <t>device_register(&amp;test_dev.dev);</t>
+  </si>
+  <si>
+    <t>static struct test_device test_dev = {</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>static struct test_driver test_drv = {</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    struct test_driver *drvp;</t>
+  </si>
+  <si>
+    <t>static int test_bus_probe(struct device *dev)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    devp = container_of(dev, struct test_device, dev);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    drvp = container_of(devp-&gt;driver, struct test_driver, drv);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    return drvp-&gt;probe(devp);</t>
+  </si>
+  <si>
+    <t>]</t>
+  </si>
+  <si>
+    <t>static int test_bus_remove(struct device *dev)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    return drvp-&gt;remove(devp);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    .probe = test_bus_probe,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    .remove = test_bus_remove,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">7. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>注销</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> bus / device / driver</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>driver_unregister(&amp;test_drv.drv);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>device_unregister(&amp;test_dev.dev);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bus_unregister(&amp;test_bus);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">include/linux/device.h
 struct device {
     struct device            *parent;
     struct device_private    *p;
@@ -5749,7 +8156,26 @@
 #endif
     /* arch specific additions */
     struct dev_archdata    archdata;
-    struct device_node     *of_node;   /* associated device tree node */
+    struct device_node     *of_node;   /* </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>关联设备树节点</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> */
     struct fwnode_handle   *fwnode;    /* firmware device node */
     dev_t                  devt;       /* dev_t, creates the sysfs "dev" */
     u32                    id;         /* device instance */
@@ -5763,2412 +8189,7 @@
     bool                 offline_disabled:1;
     bool                 offline:1;
 };</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户空间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Linux</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>udev</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>或</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>Android</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>ueventd</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>会监听</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">uevent, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>然后自动创建设备节点</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>platform_device</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>include/linux/platform_device.h
-struct platform_device {
-    const char      *name;
-    int             id;
-    bool            id_auto;
-    struct device   dev;
-    u32             num_resources;
-    struct resource *resource;
-    const struct platform_device_id   *id_entry;
-    char *driver_override;         /* Driver name to force a match */
-    struct mfd_cell *mfd_cell;     /* MFD cell pointer */
-    struct pdev_archdata archdata; /* arch specific additions */
-};</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>platform_driver</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">drivers/base/platform.c
-EXPORT_SYMBOL_GPL:
-struct platform_device *platform_device_alloc(const char *name, int id);
-int platform_device_add(struct platform_device *pdev);
-void platform_device_del(struct platform_device *pdev);
-int platform_device_register(struct platform_device *pdev);
-void platform_device_unregister(struct platform_device *pdev);
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>drivers/base/platform.c
-EXPORT_SYMBOL_GPL:
-int __platform_driver_register(struct platform_driver *drv, struct module *owner);
-void platform_driver_unregister(struct platform_driver *drv);</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>include/linux/platform_device.h
-struct platform_driver {
-    int (*probe)(struct platform_device *);
-    int (*remove)(struct platform_device *);
-    void (*shutdown)(struct platform_device *);
-    int (*suspend)(struct platform_device *, pm_message_t state);
-    int (*resume)(struct platform_device *);
-    struct device_driver driver;
-    const struct platform_device_id *id_table;
-    bool prevent_deferred_probe;
-};
-#define platform_driver_register(drv) __platform_driver_register(drv, THIS_MODULE)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>platform_driver_register(&amp;i2c_imx_driver)</t>
-  </si>
-  <si>
-    <t>static struct platform_driver i2c_imx_driver = {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    .remove = i2c_imx_remove,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        .of_match_table = i2c_imx_dt_ids,</t>
-  </si>
-  <si>
-    <t>resource</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>include/linux/ioport.h
-struct resource {
-    resource_size_t start;
-    resource_size_t end;
-    const char *name;
-    unsigned long flags;
-    struct resource *parent, *sibling, *child;
-};</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>根据设备树创建</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>platform_device</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>过程</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>arch_initcall(customize_machine);</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>arch/arm/kernel/setup.c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>init/main.c, customize_machine()</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>为</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>arch_initcall</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>customize_machine()</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>imx6q_init_machine()</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>arch/arm/mach-imx/board-imx6dl_xxxx.c, machine_desc-&gt;init_machine()</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>of_platform_populate(NULL, of_default_bus_match_table, NULL, parent)</t>
-  </si>
-  <si>
-    <t>drivers/of/platform.c</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>of_platform_bus_create(child, matches, lookup, parent, true)</t>
-  </si>
-  <si>
-    <t>struct platform_device *dev = of_platform_device_create_pdata(bus, bus_id, platform_data, parent)</t>
-  </si>
-  <si>
-    <t>subsys_initcall(i2c_adap_imx_init)</t>
-  </si>
-  <si>
-    <t>drivers/i2c/busses/i2c-imx.c</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>i2c_adap_imx_init()</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>i2c_imx_probe()</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>i2c_add_numbered_adapter(&amp;i2c_imx-&gt;adapter)</t>
-  </si>
-  <si>
-    <t>i2c_add_adapter(adap)</t>
-  </si>
-  <si>
-    <t>drivers/i2c/i2c-core.c</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>i2c_register_adapter(adapter)</t>
-  </si>
-  <si>
-    <t>of_i2c_register_devices(adap)</t>
-  </si>
-  <si>
-    <t>of_i2c_register_device(adap, node)</t>
-  </si>
-  <si>
-    <t>struct i2c_client *result = i2c_new_device(adap, &amp;info)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    .probe = i2c_imx_probe,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    .driver    = {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        .name = "imx-i2c",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        .owner = THIS_MODULE,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        .pm = IMX_I2C_PM,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    .id_table    = imx_i2c_devtype,</t>
-  </si>
-  <si>
-    <t>static const struct of_device_id i2c_imx_dt_ids[] = {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    { .compatible = "fsl,imx1-i2c", .data = &amp;imx1_i2c_hwdata, },</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    { .compatible = "fsl,imx21-i2c", .data = &amp;imx21_i2c_hwdata, },</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    { .compatible = "fsl,vf610-i2c", .data = &amp;vf610_i2c_hwdata, },</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>初始化</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>platform_bus</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>根据设备树创建各子系统设备过程</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>以</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>i2c_client</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>为例</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">include/linux/kobject.h
-struct kobj_attribute {
-    struct attribute attr;
-    ssize_t (*show)(struct kobject *kobj, struct kobj_attribute *attr,
-            char *buf);
-    ssize_t (*store)(struct kobject *kobj, struct kobj_attribute *attr,
-            const char *buf, size_t count);
-};
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>注</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>:
-show</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>函数</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>和</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> store</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>函数</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>需要自己实现</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>include/linux/sysfs.h
-static inline struct kernfs_node *sysfs_get(struct kernfs_node *kn);
-static inline void sysfs_put(struct kernfs_node *kn);
-static inline int __must_check sysfs_create_file(struct kobject *kobj,
-        const struct attribute *attr);
-static inline void sysfs_remove_file(struct kobject *kobj,
-        const struct attribute *attr);</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>include/linux/sysfs.h
-struct attribute {
-    const char            *name;
-    umode_t               mode;
-#ifdef CONFIG_DEBUG_LOCK_ALLOC
-    bool                  ignore_lockdep:1;
-    struct lock_class_key *key;
-    struct lock_class_key skey;
-#endif
-};
-#define __ATTR(_name, _mode, _show, _store) {      \
-    .attr = {                                      \
-        .name = __stringify(_name),                \
-        .mode = VERIFY_OCTAL_PERMISSIONS(_mode),   \
-    },                                             \
-    .show    = _show,                              \
-    .store    = _store,                            \
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>include/linux/sysfs.h
-static inline int __must_check sysfs_create_file(struct kobject *kobj, const struct attribute *attr)
-{
-    return sysfs_create_file_ns(kobj, attr, NULL);
-}
-static inline void sysfs_remove_file(struct kobject *kobj, const struct attribute *attr)
-{
-    sysfs_remove_file_ns(kobj, attr, NULL);
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>driver_private</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>drivers/base/base.h
-struct driver_private {
-    struct kobject kobj;
-    struct klist klist_devices;
-    struct klist_node knode_bus;
-    struct module_kobject *mkobj;
-    struct device_driver *driver;
-};</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">drivers/base/bus.c
-EXPORT_SYMBOL_GPL:
-int bus_register(struct bus_type *bus);
-void bus_unregister(struct bus_type *bus);
-/* register a subsystem at /sys/devices/system/ */
-int subsys_system_register(struct bus_type *subsys, const struct attribute_group **groups);
-/* register a subsystem at /sys/devices/virtual/ */
-int subsys_virtual_register(struct bus_type *subsys, const struct attribute_group **groups);
-int bus_create_file(struct bus_type *bus, struct bus_attribute *attr);
-void bus_remove_file(struct bus_type *bus, struct bus_attribute *attr);
-// </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>内核通知链相关</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">
-int bus_register_notifier(struct bus_type *bus, struct notifier_block *nb);
-int bus_unregister_notifier(struct bus_type *bus, struct notifier_block *nb);
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>内部接口</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>:
-static int subsys_register(struct bus_type *subsys, const struct attribute_group **groups,
-        struct kobject *parent_of_root);</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kobject, ktype, kset</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>名称概念</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>.h</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>相关</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>.c</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>相关</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">include/linux/kobject.h
-struct kobj_type {
-    void (*release)(struct kobject *kobj);   // </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>提供释放</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>kobject</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>上层结构的方法</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">
-    const struct sysfs_ops *sysfs_ops;   // </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>本</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>ktype</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>对应的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>kobject</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>上层结构的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>sysfs</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>文件系统接口</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">
-    struct attribute **default_attrs;    // </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>本</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>ktype</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>对应的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>kobject</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>上层结构的默认属性列表</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">
-    const struct kobj_ns_type_operations *(*child_ns_type)(struct kobject *kobj);
-    const void *(*namespace)(struct kobject *kobj);
-};
-static inline struct kobj_type *get_ktype(struct kobject *kobj);
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>注</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">:
-child_ns_type/namespace </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>相关的先不管</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>可能跟</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> net </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">有关
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">enum kobj_ns_type </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>目前好像也只有</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> NONE </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>和</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> NET</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">include/linux/kobject.h
-struct kobject {
-    const char          *name;
-    struct list_head    entry;    // </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>用于将本</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>kobject</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>加入到父</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>object</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>所在的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>kset</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>list</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>中</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">
-    struct kobject      *parent;  // </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>指向父</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">object
-    struct kset         *kset;    // </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>指向父</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>object</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>所在的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">kset
-    struct kobj_type    *ktype;   // </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>属性操作集合</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>及</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> release</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>方法</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">
-    struct kernfs_node  *sd;      // </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>本</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>Kobject</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>在</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>sysfs</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>中的体现</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">
-    struct kref         kref;
-#ifdef CONFIG_DEBUG_KOBJECT_RELEASE
-    struct delayed_work release;
-#endif
-    unsigned int        state_initialized:1;
-    unsigned int        state_in_sysfs:1;
-    unsigned int        state_add_uevent_sent:1;
-    unsigned int        state_remove_uevent_sent:1;
-    unsigned int        uevent_suppress:1;
-};
-static inline const char *kobject_name(const struct kobject *kobj);
-</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">include/linux/kernfs.h
-struct kernfs_node {
-    atomic_t           count;
-    atomic_t           active;
-#ifdef CONFIG_DEBUG_LOCK_ALLOC
-    struct lockdep_map dep_map;
-#endif
-    /*
-     * Use kernfs_get_parent() and kernfs_name/path() instead of
-     * accessing the following two fields directly.  If the node is
-     * never moved to a different parent, it is safe to access the
-     * parent directly.
-     */
-    struct kernfs_node *parent;
-    const char         *name;
-    struct rb_node     rb;
-    const void         *ns;    /* namespace tag */
-    unsigned int       hash;   /* ns + name hash */
-    union {
-        struct kernfs_elem_dir     dir;
-        struct kernfs_elem_symlink symlink;
-        struct kernfs_elem_attr    attr;
-    };
-    void                 *priv; // </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>存放</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">kobject(dir) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>或</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> attribute(attr)
-    unsigned short       flags;
-    umode_t              mode;
-    unsigned int         ino;
-    struct kernfs_iattrs *iattr;
-};</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">include/linux/kobject.h
-struct kset {
-    struct list_head list;   // </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>用于管理子</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>kobject</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">list
-    spinlock_t list_lock;
-    struct kobject kobj;   // kset </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>也是特殊的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> kobject
-    const struct kset_uevent_ops *uevent_ops;
-};
-extern void kset_init(struct kset *kset);
-static inline struct kset *to_kset(struct kobject *kobj);
-static inline struct kset *kset_get(struct kset *k);
-static inline void kset_put(struct kset *k);
-kset</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>有以下几个</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">:
-/sys/firmware/devicetree/ - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>无</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">kset_uevent_ops
-/sys/devices/ - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>有</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">kset_uevent_ops
-    devices_kset = kset_create_and_add("devices", &amp;device_uevent_ops, NULL);
-/sys/devices/system/ - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>无</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">kset_uevent_ops
-    system_kset = kset_create_and_add("system", NULL, &amp;devices_kset-&gt;kobj);
-/sys/bus/ - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>有</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">kset_uevent_ops
-    bus_kset = kset_create_and_add("bus", &amp;bus_uevent_ops, NULL);
-/sys/bus/&lt;bus_type&gt;/ - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>应该也没有</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">kset_uevent_ops
-    retval = kset_register(&amp;priv-&gt;subsys);
-/sys/bus/&lt;bus_type&gt;/devices/ - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>无</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">kset_uevent_ops
-    priv-&gt;devices_kset = kset_create_and_add("devices", NULL, &amp;priv-&gt;subsys.kobj);
-/sys/bus/&lt;bus_type&gt;/drivers/ - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>无</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">kset_uevent_ops
-    priv-&gt;drivers_kset = kset_create_and_add("drivers", NULL, &amp;priv-&gt;subsys.kobj);
-/sys/class/ - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>无</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">kset_uevent_ops
-    class_kset = kset_create_and_add("class", NULL, NULL);
-/sys/class/&lt;class&gt;/ - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>应该也没有</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>kset_uevent_ops
-    error = kset_register(&amp;cp-&gt;subsys);</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>一</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">// ktype </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>自动赋值为</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> dynamic_kobj_ktype</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kobj = kobject_create_and_add("test", NULL);</t>
-  </si>
-  <si>
-    <t>kobject_del(kobj);</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kobject_put(kobj);</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>struct kobject *kobj;</t>
-  </si>
-  <si>
-    <t>kobj = kzalloc(sizeof(*kobj), GFP_KERNEL);</t>
-  </si>
-  <si>
-    <t>static struct kobj_type test_ktype = {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    .sysfs_ops  = &amp;test_sysfs_ops,</t>
-  </si>
-  <si>
-    <t>const struct sysfs_ops test_sysfs_ops = {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    .show   = test_attr_show,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    .store  = test_attr_store,</t>
-  </si>
-  <si>
-    <t>{</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    ...</t>
-  </si>
-  <si>
-    <t>}</t>
-  </si>
-  <si>
-    <t>static ssize_t test_attr_show(struct kobject *kobj, struct attribute *attr, char *buf)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>static ssize_t test_attr_store(struct kobject *kobj, struct attribute *attr, const char *buf, size_t count)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>static void test_kobj_release(struct kobject *kobj)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    kfree(kobj);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    .release    = test_kobj_release,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kobject_add(kobj, NULL, "test");</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>定义</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> attribute</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>static struct attribute val_attribute = {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    .name = "val",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    .mode = 0664,</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>定义</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> sysfs_ops</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">3. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>定义</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> ktype</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">4. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>创建与添加</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> kobject</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">5. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>创建</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> file</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sysfs_create_file(kobj, &amp;val_attribute);</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>删除</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> kobject</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>################################ kobject ################################</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>################################ kset ################################</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>struct kset *test_kset;</t>
-  </si>
-  <si>
-    <t>test_kset = kzalloc(sizeof(struct kset), GFP_KERNEL);</t>
-  </si>
-  <si>
-    <t>kobject_set_name(test_kset-&gt;kobj, "test");</t>
-  </si>
-  <si>
-    <t>kset_register(test_kset);</t>
-  </si>
-  <si>
-    <t>struct kobject *kobj;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kobj = kobject_create();</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>struct kset *test_kset;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_kset = kset_create_and_add("test", NULL, NULL);</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">// ktype </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>自动赋值为</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> kset_ktype</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kobject_init_and_add(kobj, &amp;test_ktype, NULL, "test");</t>
-  </si>
-  <si>
-    <t>test_kset-&gt;kobj.ktype = &amp;test_ktype;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>注销</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> kset</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>注册</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> kset</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kset_unregister(test_kset);</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>################################ bus / device / driver ################################</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>struct test_device {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    char *drv_name;</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>定义</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> device_driver </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>类型</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>定义</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> device </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>类型</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    struct device_driver drv;</t>
-  </si>
-  <si>
-    <t>struct test_driver {</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    struct device dev;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    struct test_device *devp;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    devp = container_of(dev_in, struct test_device, dev);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        return 1;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    return 0;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    if (!strcmp(drv_in-&gt;name, devp-&gt;drv_name)) {</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>struct bus_type test_bus = {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    .name = "test_bus",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    .match = test_bus_match,</t>
-  </si>
-  <si>
-    <t>int test_bus_match(struct device *dev_in, struct device_driver *drv_in)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">4. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>定义</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> device </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>数据</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    .drv_name = "test_drv",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    .dev = {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        .init_name = "test_dev",</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">3. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>定义</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> bus_type </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>数据</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>void test_dev_release(struct device *dev)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        .bus = &amp;test_bus,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        .release = test_dev_release</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">5. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>定义</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> driver </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>数据</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>static int test_drv_probe(struct test_device *dev)</t>
-  </si>
-  <si>
-    <t>static int test_drv_remove(struct test_device *dev)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    .driver = {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        .name = "test_drv",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    .probe = test_drv_probe,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    .remove = test_drv_remove,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    int (*probe)(struct test_device *);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    int (*remove)(struct test_device *);</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>注册</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> bus / device / driver</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bus_register(&amp;test_bus);</t>
-  </si>
-  <si>
-    <t>driver_register(&amp;test_drv.drv);</t>
-  </si>
-  <si>
-    <t>device_register(&amp;test_dev.dev);</t>
-  </si>
-  <si>
-    <t>static struct test_device test_dev = {</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>static struct test_driver test_drv = {</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    struct test_driver *drvp;</t>
-  </si>
-  <si>
-    <t>static int test_bus_probe(struct device *dev)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    devp = container_of(dev, struct test_device, dev);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    drvp = container_of(devp-&gt;driver, struct test_driver, drv);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    return drvp-&gt;probe(devp);</t>
-  </si>
-  <si>
-    <t>]</t>
-  </si>
-  <si>
-    <t>static int test_bus_remove(struct device *dev)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    return drvp-&gt;remove(devp);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    .probe = test_bus_probe,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    .remove = test_bus_remove,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">7. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>注销</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> bus / device / driver</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>driver_unregister(&amp;test_drv.drv);</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>device_unregister(&amp;test_dev.dev);</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bus_unregister(&amp;test_bus);</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8764,7 +8785,7 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
   </sheetData>
@@ -8789,7 +8810,7 @@
   <sheetData>
     <row r="2" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B2" s="17" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C2" s="17"/>
       <c r="D2" s="17"/>
@@ -10672,7 +10693,7 @@
     </row>
     <row r="27" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B27" s="37" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C27" s="37"/>
       <c r="D27" s="37"/>
@@ -10753,7 +10774,7 @@
     </row>
     <row r="28" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B28" s="23" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C28" s="24"/>
       <c r="D28" s="24"/>
@@ -10800,7 +10821,7 @@
       <c r="AS28" s="25"/>
       <c r="AT28" s="25"/>
       <c r="AU28" s="24" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="AV28" s="25"/>
       <c r="AW28" s="25"/>
@@ -11547,7 +11568,7 @@
       <c r="AS37" s="29"/>
       <c r="AT37" s="29"/>
       <c r="AU37" s="28" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="AV37" s="29"/>
       <c r="AW37" s="29"/>
@@ -11589,7 +11610,7 @@
       <c r="F38" s="29"/>
       <c r="G38" s="29"/>
       <c r="H38" s="29" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="I38" s="29"/>
       <c r="J38" s="29"/>
@@ -11630,7 +11651,7 @@
       <c r="AS38" s="29"/>
       <c r="AT38" s="29"/>
       <c r="AU38" s="29" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="AV38" s="29"/>
       <c r="AW38" s="29"/>
@@ -11673,7 +11694,7 @@
       <c r="G39" s="29"/>
       <c r="H39" s="29"/>
       <c r="I39" s="29" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J39" s="29"/>
       <c r="K39" s="29"/>
@@ -11713,7 +11734,7 @@
       <c r="AS39" s="29"/>
       <c r="AT39" s="29"/>
       <c r="AU39" s="29" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AV39" s="29"/>
       <c r="AW39" s="29"/>
@@ -11757,7 +11778,7 @@
       <c r="H40" s="29"/>
       <c r="I40" s="29"/>
       <c r="J40" s="29" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="K40" s="29"/>
       <c r="L40" s="29"/>
@@ -11796,7 +11817,7 @@
       <c r="AS40" s="29"/>
       <c r="AT40" s="29"/>
       <c r="AU40" s="29" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="AV40" s="29"/>
       <c r="AW40" s="29"/>
@@ -11841,7 +11862,7 @@
       <c r="I41" s="29"/>
       <c r="J41" s="29"/>
       <c r="K41" s="29" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="L41" s="29"/>
       <c r="M41" s="29"/>
@@ -11879,7 +11900,7 @@
       <c r="AS41" s="29"/>
       <c r="AT41" s="29"/>
       <c r="AU41" s="29" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="AV41" s="29"/>
       <c r="AW41" s="29"/>
@@ -11925,7 +11946,7 @@
       <c r="J42" s="33"/>
       <c r="K42" s="33"/>
       <c r="L42" s="33" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="M42" s="33"/>
       <c r="N42" s="33"/>
@@ -11962,7 +11983,7 @@
       <c r="AS42" s="33"/>
       <c r="AT42" s="33"/>
       <c r="AU42" s="33" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="AV42" s="33"/>
       <c r="AW42" s="33"/>
@@ -12156,7 +12177,7 @@
     </row>
     <row r="45" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B45" s="37" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C45" s="37"/>
       <c r="D45" s="37"/>
@@ -12237,7 +12258,7 @@
     </row>
     <row r="46" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B46" s="36" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C46" s="25"/>
       <c r="D46" s="25"/>
@@ -12284,7 +12305,7 @@
       <c r="AS46" s="25"/>
       <c r="AT46" s="25"/>
       <c r="AU46" s="25" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="AV46" s="25"/>
       <c r="AW46" s="25"/>
@@ -12320,7 +12341,7 @@
     </row>
     <row r="47" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B47" s="31" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C47" s="29"/>
       <c r="D47" s="29"/>
@@ -12367,7 +12388,7 @@
       <c r="AS47" s="29"/>
       <c r="AT47" s="29"/>
       <c r="AU47" s="29" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="AV47" s="29"/>
       <c r="AW47" s="29"/>
@@ -12404,7 +12425,7 @@
     <row r="48" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B48" s="31"/>
       <c r="C48" s="29" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D48" s="29"/>
       <c r="E48" s="29"/>
@@ -12450,7 +12471,7 @@
       <c r="AS48" s="29"/>
       <c r="AT48" s="29"/>
       <c r="AU48" s="29" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="AV48" s="29"/>
       <c r="AW48" s="29"/>
@@ -12486,7 +12507,7 @@
     </row>
     <row r="49" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B49" s="31" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C49" s="29"/>
       <c r="D49" s="29"/>
@@ -12533,7 +12554,7 @@
       <c r="AS49" s="29"/>
       <c r="AT49" s="29"/>
       <c r="AU49" s="29" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="AV49" s="29"/>
       <c r="AW49" s="29"/>
@@ -12570,7 +12591,7 @@
     <row r="50" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B50" s="31"/>
       <c r="C50" s="29" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D50" s="29"/>
       <c r="E50" s="29"/>
@@ -12616,7 +12637,7 @@
       <c r="AS50" s="29"/>
       <c r="AT50" s="29"/>
       <c r="AU50" s="29" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="AV50" s="29"/>
       <c r="AW50" s="29"/>
@@ -12654,7 +12675,7 @@
       <c r="B51" s="31"/>
       <c r="C51" s="29"/>
       <c r="D51" s="29" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E51" s="29"/>
       <c r="F51" s="29"/>
@@ -12699,7 +12720,7 @@
       <c r="AS51" s="29"/>
       <c r="AT51" s="29"/>
       <c r="AU51" s="29" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="AV51" s="29"/>
       <c r="AW51" s="29"/>
@@ -12738,7 +12759,7 @@
       <c r="C52" s="29"/>
       <c r="D52" s="29"/>
       <c r="E52" s="29" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F52" s="29"/>
       <c r="G52" s="29"/>
@@ -12782,7 +12803,7 @@
       <c r="AS52" s="29"/>
       <c r="AT52" s="29"/>
       <c r="AU52" s="29" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="AV52" s="29"/>
       <c r="AW52" s="29"/>
@@ -12822,7 +12843,7 @@
       <c r="D53" s="29"/>
       <c r="E53" s="29"/>
       <c r="F53" s="29" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G53" s="29"/>
       <c r="H53" s="29"/>
@@ -12865,7 +12886,7 @@
       <c r="AS53" s="29"/>
       <c r="AT53" s="29"/>
       <c r="AU53" s="29" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="AV53" s="29"/>
       <c r="AW53" s="29"/>
@@ -12906,7 +12927,7 @@
       <c r="E54" s="29"/>
       <c r="F54" s="29"/>
       <c r="G54" s="29" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H54" s="29"/>
       <c r="I54" s="29"/>
@@ -12948,7 +12969,7 @@
       <c r="AS54" s="29"/>
       <c r="AT54" s="29"/>
       <c r="AU54" s="29" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="AV54" s="29"/>
       <c r="AW54" s="29"/>
@@ -12990,7 +13011,7 @@
       <c r="F55" s="29"/>
       <c r="G55" s="29"/>
       <c r="H55" s="29" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="I55" s="29"/>
       <c r="J55" s="29"/>
@@ -13031,7 +13052,7 @@
       <c r="AS55" s="29"/>
       <c r="AT55" s="29"/>
       <c r="AU55" s="29" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="AV55" s="29"/>
       <c r="AW55" s="29"/>
@@ -13146,7 +13167,7 @@
     </row>
     <row r="57" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B57" s="31" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C57" s="29"/>
       <c r="D57" s="29"/>
@@ -13227,7 +13248,7 @@
     </row>
     <row r="58" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B58" s="31" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C58" s="29"/>
       <c r="D58" s="29"/>
@@ -13308,7 +13329,7 @@
     </row>
     <row r="59" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B59" s="31" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C59" s="29"/>
       <c r="D59" s="29"/>
@@ -13389,7 +13410,7 @@
     </row>
     <row r="60" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B60" s="31" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C60" s="29"/>
       <c r="D60" s="29"/>
@@ -13470,7 +13491,7 @@
     </row>
     <row r="61" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B61" s="31" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C61" s="29"/>
       <c r="D61" s="29"/>
@@ -13551,7 +13572,7 @@
     </row>
     <row r="62" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B62" s="31" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C62" s="29"/>
       <c r="D62" s="29"/>
@@ -13632,7 +13653,7 @@
     </row>
     <row r="63" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B63" s="31" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C63" s="29"/>
       <c r="D63" s="29"/>
@@ -13713,7 +13734,7 @@
     </row>
     <row r="64" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B64" s="31" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C64" s="29"/>
       <c r="D64" s="29"/>
@@ -13875,7 +13896,7 @@
     </row>
     <row r="66" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B66" s="31" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C66" s="29"/>
       <c r="D66" s="29"/>
@@ -14116,7 +14137,7 @@
     </row>
     <row r="69" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B69" s="31" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C69" s="29"/>
       <c r="D69" s="29"/>
@@ -14197,7 +14218,7 @@
     </row>
     <row r="70" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B70" s="31" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C70" s="29"/>
       <c r="D70" s="29"/>
@@ -14278,7 +14299,7 @@
     </row>
     <row r="71" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B71" s="31" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C71" s="29"/>
       <c r="D71" s="29"/>
@@ -14359,7 +14380,7 @@
     </row>
     <row r="72" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B72" s="31" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C72" s="29"/>
       <c r="D72" s="29"/>
@@ -14563,7 +14584,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>39</v>
@@ -14605,7 +14626,7 @@
         <v>33</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D7" s="3"/>
     </row>
@@ -14643,7 +14664,7 @@
         <v>44</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D11" s="3"/>
     </row>
@@ -14661,7 +14682,7 @@
         <v>54</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>190</v>
@@ -24685,7 +24706,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:D11"/>
   <sheetViews>
-    <sheetView topLeftCell="C7" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -24704,13 +24725,13 @@
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>530</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="108" x14ac:dyDescent="0.25">
@@ -24727,7 +24748,7 @@
         <v>196</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D4" s="3"/>
     </row>
@@ -24736,7 +24757,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>42</v>
@@ -24747,7 +24768,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>48</v>
@@ -24758,7 +24779,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>47</v>
@@ -24824,27 +24845,27 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C4" s="4" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C5" s="4" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C6" s="4" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
@@ -24854,62 +24875,62 @@
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C10" s="4" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C11" s="4" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C12" s="4" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C13" s="4" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C15" s="4" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C16" s="4" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C17" s="4" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C18" s="4" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C20" s="4" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C21" s="4" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C22" s="4" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
@@ -24919,42 +24940,42 @@
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="4" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C26" s="4" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C27" s="4" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C28" s="4" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C29" s="4" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C31" s="4" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C32" s="4" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="33" spans="2:44" x14ac:dyDescent="0.25">
       <c r="C33" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="34" spans="2:44" x14ac:dyDescent="0.25">
@@ -24964,161 +24985,161 @@
     </row>
     <row r="36" spans="2:44" x14ac:dyDescent="0.25">
       <c r="B36" s="4" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="37" spans="2:44" x14ac:dyDescent="0.25">
       <c r="C37" s="4" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="38" spans="2:44" x14ac:dyDescent="0.25">
       <c r="D38" s="4" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="39" spans="2:44" x14ac:dyDescent="0.25">
       <c r="D39" s="4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AR39" s="4" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="40" spans="2:44" x14ac:dyDescent="0.25">
       <c r="C40" s="38" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="41" spans="2:44" x14ac:dyDescent="0.25">
       <c r="D41" s="4" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="42" spans="2:44" x14ac:dyDescent="0.25">
       <c r="D42" s="4" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="AR42" s="4" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="43" spans="2:44" x14ac:dyDescent="0.25">
       <c r="D43" s="4" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="44" spans="2:44" x14ac:dyDescent="0.25">
       <c r="C44" s="39" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="45" spans="2:44" x14ac:dyDescent="0.25">
       <c r="D45" s="4" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="46" spans="2:44" x14ac:dyDescent="0.25">
       <c r="D46" s="4" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="47" spans="2:44" x14ac:dyDescent="0.25">
       <c r="D47" s="4" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="49" spans="2:44" x14ac:dyDescent="0.25">
       <c r="B49" s="4" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="50" spans="2:44" x14ac:dyDescent="0.25">
       <c r="C50" s="4" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="52" spans="2:44" x14ac:dyDescent="0.25">
       <c r="B52" s="4" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="53" spans="2:44" x14ac:dyDescent="0.25">
       <c r="C53" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="54" spans="2:44" x14ac:dyDescent="0.25">
       <c r="C54" s="4" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="57" spans="2:44" x14ac:dyDescent="0.25">
       <c r="B57" s="4" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="59" spans="2:44" x14ac:dyDescent="0.25">
       <c r="B59" s="4" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="60" spans="2:44" x14ac:dyDescent="0.25">
       <c r="C60" s="38" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="61" spans="2:44" x14ac:dyDescent="0.25">
       <c r="D61" s="4" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="62" spans="2:44" x14ac:dyDescent="0.25">
       <c r="D62" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="AR62" s="4" t="s">
         <v>579</v>
-      </c>
-      <c r="AR62" s="4" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="63" spans="2:44" x14ac:dyDescent="0.25">
       <c r="C63" s="38" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="64" spans="2:44" x14ac:dyDescent="0.25">
       <c r="D64" s="4" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D65" s="4" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D66" s="4" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D67" s="4" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D68" s="4" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B70" s="4" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D71" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
   </sheetData>
@@ -25132,7 +25153,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B1:D11"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -25165,7 +25186,7 @@
         <v>197</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>472</v>
+        <v>640</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>200</v>
@@ -25193,10 +25214,10 @@
     </row>
     <row r="6" spans="2:4" ht="96" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>525</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>526</v>
       </c>
       <c r="D6" s="3"/>
     </row>
@@ -25208,7 +25229,7 @@
         <v>401</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="96" x14ac:dyDescent="0.25">
@@ -25256,6 +25277,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -43976,7 +43998,7 @@
     </row>
     <row r="239" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B239" s="22" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C239" s="12"/>
       <c r="D239" s="12"/>
@@ -44057,7 +44079,7 @@
     </row>
     <row r="240" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B240" s="14" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C240" s="15"/>
       <c r="D240" s="15"/>
@@ -44147,8 +44169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{337962F2-4073-4122-8084-15949F179999}">
   <dimension ref="B2:C94"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="AE83" sqref="AE83"/>
+    <sheetView showGridLines="0" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="Z87" sqref="Z87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
@@ -44158,27 +44180,27 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C4" s="4" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C5" s="4" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C6" s="4" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
@@ -44188,27 +44210,27 @@
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C10" s="4" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C11" s="4" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C12" s="4" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C13" s="4" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
@@ -44218,157 +44240,157 @@
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" s="4" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C18" s="4" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C19" s="4" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C20" s="4" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C21" s="4" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="22" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C22" s="4" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="23" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C23" s="4" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="24" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C24" s="4" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="25" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C25" s="4" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="27" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C27" s="4" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="28" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C28" s="4" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="29" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C29" s="4" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="30" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C30" s="4" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="31" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C31" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="32" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C32" s="4" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C34" s="4" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="36" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C36" s="4" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="37" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C37" s="4" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="38" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C38" s="4" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="39" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C39" s="4" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="40" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C40" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="41" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C41" s="4" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="42" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C42" s="4" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="43" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C43" s="4" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="45" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C45" s="4" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="46" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C46" s="4" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="47" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C47" s="4" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="48" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C48" s="4" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C49" s="4" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.25">
@@ -44378,52 +44400,52 @@
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B52" s="4" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C53" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C54" s="4" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C55" s="4" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C57" s="4" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C58" s="4" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C59" s="4" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C60" s="4" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C61" s="4" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C62" s="4" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.25">
@@ -44438,67 +44460,67 @@
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B66" s="4" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C67" s="4" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C68" s="4" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C69" s="4" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C70" s="4" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C72" s="4" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C73" s="4" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C74" s="4" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C75" s="4" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C77" s="4" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C78" s="4" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C79" s="4" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C80" s="4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.25">
@@ -44508,12 +44530,12 @@
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C82" s="4" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C83" s="4" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.25">
@@ -44523,42 +44545,42 @@
     </row>
     <row r="86" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B86" s="4" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="87" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C87" s="4" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="88" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C88" s="4" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="89" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C89" s="4" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="91" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B91" s="4" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="92" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C92" s="4" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="93" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C93" s="4" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="94" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C94" s="4" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
   </sheetData>
@@ -44601,32 +44623,32 @@
     </row>
     <row r="3" spans="2:4" ht="156" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>476</v>
-      </c>
       <c r="D3" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="144" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="96" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>485</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>486</v>
       </c>
       <c r="D5" s="2"/>
     </row>
